--- a/3_Component_Results/INVINV/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.06578863049612835</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5873467334423524</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.6636964401451462</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8146756656149404</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.8199372453822267</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04622089143265464</v>
+        <v>-0.02523324468164586</v>
       </c>
       <c r="C3">
-        <v>0.1765370773295473</v>
+        <v>0.505465297153278</v>
       </c>
       <c r="D3">
-        <v>0.1810150731427574</v>
+        <v>0.4821656161413891</v>
       </c>
       <c r="E3">
-        <v>0.425458662084529</v>
+        <v>0.6943814629880244</v>
       </c>
       <c r="F3">
-        <v>0.4271490095794285</v>
+        <v>0.7008277088516904</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0706491421465429</v>
+        <v>0.005608450684684903</v>
       </c>
       <c r="C4">
-        <v>0.2755877888481558</v>
+        <v>0.4847052646643364</v>
       </c>
       <c r="D4">
-        <v>0.1856397252970625</v>
+        <v>0.4358015571763177</v>
       </c>
       <c r="E4">
-        <v>0.4308592871194289</v>
+        <v>0.6601526771712115</v>
       </c>
       <c r="F4">
-        <v>0.4293426679726314</v>
+        <v>0.6668308405092866</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.08152412404426726</v>
+        <v>-0.01284610207697986</v>
       </c>
       <c r="C5">
-        <v>0.2287215321044931</v>
+        <v>0.4921832099637495</v>
       </c>
       <c r="D5">
-        <v>0.1801588247835522</v>
+        <v>0.500471272416235</v>
       </c>
       <c r="E5">
-        <v>0.4244512042432583</v>
+        <v>0.7074399426214462</v>
       </c>
       <c r="F5">
-        <v>0.4208651668769145</v>
+        <v>0.7161102612933321</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1088058290962923</v>
+        <v>-0.09768167243710632</v>
       </c>
       <c r="C6">
-        <v>0.2727726630603491</v>
+        <v>0.5114466272893242</v>
       </c>
       <c r="D6">
-        <v>0.2078386779237436</v>
+        <v>0.4882265457959837</v>
       </c>
       <c r="E6">
-        <v>0.4558932747077363</v>
+        <v>0.6987320987302528</v>
       </c>
       <c r="F6">
-        <v>0.4474038238492983</v>
+        <v>0.7033071860062781</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1084488182247417</v>
+        <v>-0.1103781127069636</v>
       </c>
       <c r="C7">
-        <v>0.2562700518851574</v>
+        <v>0.5392641884755303</v>
       </c>
       <c r="D7">
-        <v>0.2128502122792558</v>
+        <v>0.5358859154982463</v>
       </c>
       <c r="E7">
-        <v>0.4613569250366313</v>
+        <v>0.7320422907853387</v>
       </c>
       <c r="F7">
-        <v>0.4542916283996321</v>
+        <v>0.7364823498096339</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.07674060500425345</v>
+        <v>-0.09365692653440394</v>
       </c>
       <c r="C8">
-        <v>0.2651557328675834</v>
+        <v>0.5420077535482939</v>
       </c>
       <c r="D8">
-        <v>0.2268878455450337</v>
+        <v>0.5495523960454577</v>
       </c>
       <c r="E8">
-        <v>0.4763274562158197</v>
+        <v>0.7413180127620383</v>
       </c>
       <c r="F8">
-        <v>0.4764154317447362</v>
+        <v>0.7493864402156157</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1688747424982991</v>
+        <v>-0.0615712106401871</v>
       </c>
       <c r="C9">
-        <v>0.3094820624982569</v>
+        <v>0.5403710845059494</v>
       </c>
       <c r="D9">
-        <v>0.3461643167021208</v>
+        <v>0.5803707086519223</v>
       </c>
       <c r="E9">
-        <v>0.588357303602259</v>
+        <v>0.7618206538627856</v>
       </c>
       <c r="F9">
-        <v>0.5775187615572908</v>
+        <v>0.7801358214643087</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.317642905680884</v>
+        <v>-0.01679119764512867</v>
       </c>
       <c r="C10">
-        <v>0.342911391021665</v>
+        <v>0.4453590725437407</v>
       </c>
       <c r="D10">
-        <v>0.4315391984540677</v>
+        <v>0.4555235998480789</v>
       </c>
       <c r="E10">
-        <v>0.6569164318648665</v>
+        <v>0.6749248845968556</v>
       </c>
       <c r="F10">
-        <v>0.5967212054182434</v>
+        <v>0.704717858846984</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2443462408704248</v>
+        <v>0.3510802739590448</v>
       </c>
       <c r="C11">
-        <v>0.2611723105820856</v>
+        <v>0.6628255016558736</v>
       </c>
       <c r="D11">
-        <v>0.1488287689115677</v>
+        <v>0.9409865269452651</v>
       </c>
       <c r="E11">
-        <v>0.3857833186019942</v>
+        <v>0.970044600492815</v>
       </c>
       <c r="F11">
-        <v>0.3337732828658925</v>
+        <v>1.011020009805757</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/INVINV/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.06578863049612835</v>
+        <v>0.01762077648523471</v>
       </c>
       <c r="C2">
-        <v>0.5873467334423524</v>
+        <v>0.2606746064175882</v>
       </c>
       <c r="D2">
-        <v>0.6636964401451462</v>
+        <v>0.2060894145119571</v>
       </c>
       <c r="E2">
-        <v>0.8146756656149404</v>
+        <v>0.4539707198839559</v>
       </c>
       <c r="F2">
-        <v>0.8199372453822267</v>
+        <v>0.4580543675004212</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02523324468164586</v>
+        <v>-0.03991108385890063</v>
       </c>
       <c r="C3">
-        <v>0.505465297153278</v>
+        <v>0.4106880171616463</v>
       </c>
       <c r="D3">
-        <v>0.4821656161413891</v>
+        <v>0.3811762225484371</v>
       </c>
       <c r="E3">
-        <v>0.6943814629880244</v>
+        <v>0.6173947056368698</v>
       </c>
       <c r="F3">
-        <v>0.7008277088516904</v>
+        <v>0.6222338744333338</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.005608450684684903</v>
+        <v>0.07916732041434071</v>
       </c>
       <c r="C4">
-        <v>0.4847052646643364</v>
+        <v>0.3709301532769832</v>
       </c>
       <c r="D4">
-        <v>0.4358015571763177</v>
+        <v>0.3042748425083037</v>
       </c>
       <c r="E4">
-        <v>0.6601526771712115</v>
+        <v>0.5516111334158365</v>
       </c>
       <c r="F4">
-        <v>0.6668308405092866</v>
+        <v>0.5514427994895704</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.01284610207697986</v>
+        <v>0.01404048331219524</v>
       </c>
       <c r="C5">
-        <v>0.4921832099637495</v>
+        <v>0.3932946038540242</v>
       </c>
       <c r="D5">
-        <v>0.500471272416235</v>
+        <v>0.3438932018012958</v>
       </c>
       <c r="E5">
-        <v>0.7074399426214462</v>
+        <v>0.5864240801683503</v>
       </c>
       <c r="F5">
-        <v>0.7161102612933321</v>
+        <v>0.5923313273423136</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09768167243710632</v>
+        <v>0.1396864754206484</v>
       </c>
       <c r="C6">
-        <v>0.5114466272893242</v>
+        <v>0.3647466888290081</v>
       </c>
       <c r="D6">
-        <v>0.4882265457959837</v>
+        <v>0.3239417985499088</v>
       </c>
       <c r="E6">
-        <v>0.6987320987302528</v>
+        <v>0.5691588517715497</v>
       </c>
       <c r="F6">
-        <v>0.7033071860062781</v>
+        <v>0.557590091612993</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1103781127069636</v>
+        <v>0.06803994534832956</v>
       </c>
       <c r="C7">
-        <v>0.5392641884755303</v>
+        <v>0.3466446476016687</v>
       </c>
       <c r="D7">
-        <v>0.5358859154982463</v>
+        <v>0.2880673810335034</v>
       </c>
       <c r="E7">
-        <v>0.7320422907853387</v>
+        <v>0.5367190894998085</v>
       </c>
       <c r="F7">
-        <v>0.7364823498096339</v>
+        <v>0.539348533148276</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.09365692653440394</v>
+        <v>0.1037691244471713</v>
       </c>
       <c r="C8">
-        <v>0.5420077535482939</v>
+        <v>0.330411853491841</v>
       </c>
       <c r="D8">
-        <v>0.5495523960454577</v>
+        <v>0.2727802349308482</v>
       </c>
       <c r="E8">
-        <v>0.7413180127620383</v>
+        <v>0.5222836728549421</v>
       </c>
       <c r="F8">
-        <v>0.7493864402156157</v>
+        <v>0.5187423393692384</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0615712106401871</v>
+        <v>0.125076358035327</v>
       </c>
       <c r="C9">
-        <v>0.5403710845059494</v>
+        <v>0.3482004317699195</v>
       </c>
       <c r="D9">
-        <v>0.5803707086519223</v>
+        <v>0.3553016602029547</v>
       </c>
       <c r="E9">
-        <v>0.7618206538627856</v>
+        <v>0.5960718582544848</v>
       </c>
       <c r="F9">
-        <v>0.7801358214643087</v>
+        <v>0.5971938069896171</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01679119764512867</v>
+        <v>0.2709217060049215</v>
       </c>
       <c r="C10">
-        <v>0.4453590725437407</v>
+        <v>0.3713999088374357</v>
       </c>
       <c r="D10">
-        <v>0.4555235998480789</v>
+        <v>0.45908714801176</v>
       </c>
       <c r="E10">
-        <v>0.6749248845968556</v>
+        <v>0.6775597006993258</v>
       </c>
       <c r="F10">
-        <v>0.704717858846984</v>
+        <v>0.6444819076758775</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3510802739590448</v>
+        <v>0.2443462408704248</v>
       </c>
       <c r="C11">
-        <v>0.6628255016558736</v>
+        <v>0.2611723105820856</v>
       </c>
       <c r="D11">
-        <v>0.9409865269452651</v>
+        <v>0.1488287689115677</v>
       </c>
       <c r="E11">
-        <v>0.970044600492815</v>
+        <v>0.3857833186019942</v>
       </c>
       <c r="F11">
-        <v>1.011020009805757</v>
+        <v>0.3337732828658925</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/INVINV/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01762077648523471</v>
+        <v>-0.1365980374615512</v>
       </c>
       <c r="C2">
-        <v>0.2606746064175882</v>
+        <v>0.5567307316750884</v>
       </c>
       <c r="D2">
-        <v>0.2060894145119571</v>
+        <v>0.6103753252590118</v>
       </c>
       <c r="E2">
-        <v>0.4539707198839559</v>
+        <v>0.7812652080177459</v>
       </c>
       <c r="F2">
-        <v>0.4580543675004212</v>
+        <v>0.7768852086692588</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03991108385890063</v>
+        <v>-0.1983056728170303</v>
       </c>
       <c r="C3">
-        <v>0.4106880171616463</v>
+        <v>0.5132083419313908</v>
       </c>
       <c r="D3">
-        <v>0.3811762225484371</v>
+        <v>0.4400880119005959</v>
       </c>
       <c r="E3">
-        <v>0.6173947056368698</v>
+        <v>0.6633912962201086</v>
       </c>
       <c r="F3">
-        <v>0.6222338744333338</v>
+        <v>0.6394855011274496</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.07916732041434071</v>
+        <v>-0.08011458471284517</v>
       </c>
       <c r="C4">
-        <v>0.3709301532769832</v>
+        <v>0.50764697151692</v>
       </c>
       <c r="D4">
-        <v>0.3042748425083037</v>
+        <v>0.518069484399113</v>
       </c>
       <c r="E4">
-        <v>0.5516111334158365</v>
+        <v>0.7197704386810513</v>
       </c>
       <c r="F4">
-        <v>0.5514427994895704</v>
+        <v>0.7227105481572865</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.01404048331219524</v>
+        <v>-0.1481904045569161</v>
       </c>
       <c r="C5">
-        <v>0.3932946038540242</v>
+        <v>0.5126676976066116</v>
       </c>
       <c r="D5">
-        <v>0.3438932018012958</v>
+        <v>0.4729556061377808</v>
       </c>
       <c r="E5">
-        <v>0.5864240801683503</v>
+        <v>0.6877176790935222</v>
       </c>
       <c r="F5">
-        <v>0.5923313273423136</v>
+        <v>0.6786684410696205</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1396864754206484</v>
+        <v>-0.02446659572911941</v>
       </c>
       <c r="C6">
-        <v>0.3647466888290081</v>
+        <v>0.4848588817992852</v>
       </c>
       <c r="D6">
-        <v>0.3239417985499088</v>
+        <v>0.4654875719725148</v>
       </c>
       <c r="E6">
-        <v>0.5691588517715497</v>
+        <v>0.6822664962992943</v>
       </c>
       <c r="F6">
-        <v>0.557590091612993</v>
+        <v>0.6891989838604905</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.06803994534832956</v>
+        <v>-0.1353368031892271</v>
       </c>
       <c r="C7">
-        <v>0.3466446476016687</v>
+        <v>0.4984219442182552</v>
       </c>
       <c r="D7">
-        <v>0.2880673810335034</v>
+        <v>0.4619043327933868</v>
       </c>
       <c r="E7">
-        <v>0.5367190894998085</v>
+        <v>0.6796354410957295</v>
       </c>
       <c r="F7">
-        <v>0.539348533148276</v>
+        <v>0.6749645583256921</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1037691244471713</v>
+        <v>-0.1049342653064903</v>
       </c>
       <c r="C8">
-        <v>0.330411853491841</v>
+        <v>0.4821091839203969</v>
       </c>
       <c r="D8">
-        <v>0.2727802349308482</v>
+        <v>0.4458002174572263</v>
       </c>
       <c r="E8">
-        <v>0.5222836728549421</v>
+        <v>0.6676827221496946</v>
       </c>
       <c r="F8">
-        <v>0.5187423393692384</v>
+        <v>0.668480732802356</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.125076358035327</v>
+        <v>-0.1747389245262045</v>
       </c>
       <c r="C9">
-        <v>0.3482004317699195</v>
+        <v>0.508949487189903</v>
       </c>
       <c r="D9">
-        <v>0.3553016602029547</v>
+        <v>0.4794270205088618</v>
       </c>
       <c r="E9">
-        <v>0.5960718582544848</v>
+        <v>0.6924066872213626</v>
       </c>
       <c r="F9">
-        <v>0.5971938069896171</v>
+        <v>0.6874003880098497</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2709217060049215</v>
+        <v>-0.05712409056790357</v>
       </c>
       <c r="C10">
-        <v>0.3713999088374357</v>
+        <v>0.5421730072189278</v>
       </c>
       <c r="D10">
-        <v>0.45908714801176</v>
+        <v>0.6097490892393119</v>
       </c>
       <c r="E10">
-        <v>0.6775597006993258</v>
+        <v>0.7808643219147049</v>
       </c>
       <c r="F10">
-        <v>0.6444819076758775</v>
+        <v>0.8105716633807137</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2443462408704248</v>
+        <v>-0.5089197260409551</v>
       </c>
       <c r="C11">
-        <v>0.2611723105820856</v>
+        <v>0.5296605432532845</v>
       </c>
       <c r="D11">
-        <v>0.1488287689115677</v>
+        <v>0.5444046525602212</v>
       </c>
       <c r="E11">
-        <v>0.3857833186019942</v>
+        <v>0.7378378226685192</v>
       </c>
       <c r="F11">
-        <v>0.3337732828658925</v>
+        <v>0.597291140281082</v>
       </c>
       <c r="G11">
         <v>5</v>
